--- a/modules/EC.Open.Backend/Store/resources/assets/template/classification_demo.xlsx
+++ b/modules/EC.Open.Backend/Store/resources/assets/template/classification_demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13920"/>
+    <workbookView windowWidth="25140" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>industry</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>调解，仲裁，知识产权代理服务，诉讼服务，法律监测服务，司法辩护服务，个人背景调查，家务服务，服装出租，互联网域名租赁</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
   <si>
     <t>商业服务等</t>
@@ -61,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -89,52 +92,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,10 +122,49 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,7 +177,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,62 +199,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -247,55 +250,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,121 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,24 +480,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -516,6 +501,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -527,17 +527,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,17 +566,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,165 +579,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -752,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1083,85 +1089,85 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02884615384615" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.0192307692308" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.875" customWidth="1"/>
     <col min="4" max="4" width="67.7019230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>45</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="47" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <v>35</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:4">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11">
         <v>45</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="34" spans="1:4">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11">
         <v>35</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>12</v>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/modules/EC.Open.Backend/Store/resources/assets/template/classification_demo.xlsx
+++ b/modules/EC.Open.Backend/Store/resources/assets/template/classification_demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="11360"/>
+    <workbookView windowWidth="28800" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>industry</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>法律服务</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
   <si>
     <t>法律服务等</t>
@@ -63,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -92,22 +95,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,16 +109,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,25 +170,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,58 +237,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -244,61 +247,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,109 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,8 +483,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,30 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -565,162 +577,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1092,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02884615384615" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1118,14 +1121,14 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
-        <v>45</v>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="47" spans="1:4">
@@ -1133,41 +1136,41 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <v>45</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="34" spans="1:4">
       <c r="A5" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11">
         <v>35</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
